--- a/va_facility_data_2025-02-20/Rochester VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rochester%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rochester VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rochester%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R42eb72652baf418b8763cf6fd664ff73"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R743a8e5609ea45858fa37ae383bf9ce8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R28d362b678134a7e960d24f211d210f9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5cae219726344f7b8f15ac3ecd1e1864"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6c5c79e0a6384adfbf43def02731da6c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6b253093734a4444abf5eac7f97e10ac"/>
   </x:sheets>
 </x:workbook>
 </file>
